--- a/RAS 전처리 SAM/가계, 노동 미시 버전 사회계정행렬(국산) RAS 적용.xlsx
+++ b/RAS 전처리 SAM/가계, 노동 미시 버전 사회계정행렬(국산) RAS 적용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\RAS 전처리 SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V9" sqref="H9:V9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6028,6 +6028,13 @@
       </c>
       <c r="AP42" s="2"/>
     </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AD47" s="2"/>
+      <c r="AF47" s="2">
+        <f>SUM(AG34:AG35)</f>
+        <v>228163.60603873213</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
